--- a/biology/Botanique/Moutabea/Moutabea.xlsx
+++ b/biology/Botanique/Moutabea/Moutabea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Moutabea est un genre néotropical de plantes à fleurs de la famille des Polygalaceae comprenant environ 10 espèces[2]. Il a été décrit pour la première fois en Guyane en 1775 par Aublet avec l'espèce Moutabea guianensis Aubl.[3] . 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moutabea est un genre néotropical de plantes à fleurs de la famille des Polygalaceae comprenant environ 10 espèces. Il a été décrit pour la première fois en Guyane en 1775 par Aublet avec l'espèce Moutabea guianensis Aubl. . 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Moutabea sont des arbres, des arbustes ou des lianes érigées ou volubiles. Ses feuilles sont alternes, pétiolées et généralement glabres. Ses fleurs zygomorphes sont blanches ou jaunes et comportent 5 pétales sub-égaux et 5 sépales égaux. Ses 8 étamines sont organisées en 2 groupes de 4. Son ovaire comporte généralement 4 loges (parfois 2 à 5). La baie qu'il produit est comestible, globuleuse et indéhiscente et contient 2 à 5 graines[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Moutabea sont des arbres, des arbustes ou des lianes érigées ou volubiles. Ses feuilles sont alternes, pétiolées et généralement glabres. Ses fleurs zygomorphes sont blanches ou jaunes et comportent 5 pétales sub-égaux et 5 sépales égaux. Ses 8 étamines sont organisées en 2 groupes de 4. Son ovaire comporte généralement 4 loges (parfois 2 à 5). La baie qu'il produit est comestible, globuleuse et indéhiscente et contient 2 à 5 graines,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List :
 Moutabea acostae Roem.
 Moutabea aculeata (Ruiz
 Moutabea angustifolia Huber
